--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H2">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I2">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J2">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N2">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O2">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P2">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q2">
-        <v>0.5314705545264249</v>
+        <v>0.4318724553280001</v>
       </c>
       <c r="R2">
-        <v>0.5314705545264249</v>
+        <v>3.886852097952</v>
       </c>
       <c r="S2">
-        <v>0.004832465183051197</v>
+        <v>0.001769662811824634</v>
       </c>
       <c r="T2">
-        <v>0.004832465183051197</v>
+        <v>0.002100858610588432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H3">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I3">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J3">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N3">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O3">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P3">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q3">
-        <v>0.3591333797053934</v>
+        <v>0.3020545780160001</v>
       </c>
       <c r="R3">
-        <v>0.3591333797053934</v>
+        <v>2.718491202144</v>
       </c>
       <c r="S3">
-        <v>0.003265466992887805</v>
+        <v>0.001237714392899467</v>
       </c>
       <c r="T3">
-        <v>0.003265466992887805</v>
+        <v>0.001469355021983564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H4">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I4">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J4">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N4">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O4">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P4">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q4">
-        <v>5.322330097328599</v>
+        <v>4.857724753248001</v>
       </c>
       <c r="R4">
-        <v>5.322330097328599</v>
+        <v>43.719522779232</v>
       </c>
       <c r="S4">
-        <v>0.04839397906242263</v>
+        <v>0.01990526309295195</v>
       </c>
       <c r="T4">
-        <v>0.04839397906242263</v>
+        <v>0.02363057136389678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H5">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I5">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J5">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N5">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O5">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P5">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q5">
-        <v>7.660828336293459</v>
+        <v>5.352543229684001</v>
       </c>
       <c r="R5">
-        <v>7.660828336293459</v>
+        <v>48.17288906715601</v>
       </c>
       <c r="S5">
-        <v>0.069657078634315</v>
+        <v>0.02193285676221586</v>
       </c>
       <c r="T5">
-        <v>0.069657078634315</v>
+        <v>0.02603763308796368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H6">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I6">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J6">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N6">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O6">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P6">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q6">
-        <v>0.1405134658005778</v>
+        <v>0.09799158765600002</v>
       </c>
       <c r="R6">
-        <v>0.1405134658005778</v>
+        <v>0.587949525936</v>
       </c>
       <c r="S6">
-        <v>0.001277636974330976</v>
+        <v>0.0004015353755653932</v>
       </c>
       <c r="T6">
-        <v>0.001277636974330976</v>
+        <v>0.0003177889955743015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H7">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J7">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N7">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O7">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P7">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q7">
-        <v>3.639326143753324</v>
+        <v>0.7886411730044445</v>
       </c>
       <c r="R7">
-        <v>3.639326143753324</v>
+        <v>7.09777055704</v>
       </c>
       <c r="S7">
-        <v>0.03309104658700614</v>
+        <v>0.003231576680850751</v>
       </c>
       <c r="T7">
-        <v>0.03309104658700614</v>
+        <v>0.003836372471850788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H8">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J8">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N8">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O8">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P8">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q8">
-        <v>2.459220904572885</v>
+        <v>0.5515810832088889</v>
       </c>
       <c r="R8">
-        <v>2.459220904572885</v>
+        <v>4.96422974888</v>
       </c>
       <c r="S8">
-        <v>0.02236078611988138</v>
+        <v>0.00226018704971443</v>
       </c>
       <c r="T8">
-        <v>0.02236078611988138</v>
+        <v>0.002683185403007478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H9">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J9">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N9">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O9">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P9">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q9">
-        <v>36.44547172731482</v>
+        <v>8.870678600293333</v>
       </c>
       <c r="R9">
-        <v>36.44547172731482</v>
+        <v>79.83610740264</v>
       </c>
       <c r="S9">
-        <v>0.331385194724591</v>
+        <v>0.03634894941995142</v>
       </c>
       <c r="T9">
-        <v>0.331385194724591</v>
+        <v>0.04315172521256311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H10">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J10">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N10">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O10">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P10">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q10">
-        <v>52.45869711807873</v>
+        <v>9.774265339541111</v>
       </c>
       <c r="R10">
-        <v>52.45869711807873</v>
+        <v>87.96838805586999</v>
       </c>
       <c r="S10">
-        <v>0.476987530564573</v>
+        <v>0.04005153297205646</v>
       </c>
       <c r="T10">
-        <v>0.476987530564573</v>
+        <v>0.04754725439749453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.35167</v>
+      </c>
+      <c r="I11">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J11">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.397158</v>
+      </c>
+      <c r="N11">
+        <v>0.794316</v>
+      </c>
+      <c r="O11">
+        <v>0.008874291946950641</v>
+      </c>
+      <c r="P11">
+        <v>0.005933747233062296</v>
+      </c>
+      <c r="Q11">
+        <v>0.17894218462</v>
+      </c>
+      <c r="R11">
+        <v>1.07365310772</v>
+      </c>
+      <c r="S11">
+        <v>0.0007332427101611938</v>
+      </c>
+      <c r="T11">
+        <v>0.0005803136623920097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.34427</v>
+      </c>
+      <c r="I12">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J12">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.750370666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.251112</v>
+      </c>
+      <c r="O12">
+        <v>0.0391111353954311</v>
+      </c>
+      <c r="P12">
+        <v>0.03922717319114838</v>
+      </c>
+      <c r="Q12">
+        <v>0.2008667031377778</v>
+      </c>
+      <c r="R12">
+        <v>1.80780032824</v>
+      </c>
+      <c r="S12">
+        <v>0.0008230817462224418</v>
+      </c>
+      <c r="T12">
+        <v>0.0009771230780324124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.34427</v>
+      </c>
+      <c r="I13">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J13">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.224221333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.672664</v>
+      </c>
+      <c r="O13">
+        <v>0.02735459821956294</v>
+      </c>
+      <c r="P13">
+        <v>0.02743575585531137</v>
+      </c>
+      <c r="Q13">
+        <v>0.1404875594755556</v>
+      </c>
+      <c r="R13">
+        <v>1.26438803528</v>
+      </c>
+      <c r="S13">
+        <v>0.0005756690579839657</v>
+      </c>
+      <c r="T13">
+        <v>0.0006834066293499039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.34427</v>
+      </c>
+      <c r="I14">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J14">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.688264</v>
+      </c>
+      <c r="N14">
+        <v>59.064792</v>
+      </c>
+      <c r="O14">
+        <v>0.4399241678743427</v>
+      </c>
+      <c r="P14">
+        <v>0.4412293672812835</v>
+      </c>
+      <c r="Q14">
+        <v>2.259359549093333</v>
+      </c>
+      <c r="R14">
+        <v>20.33423594184</v>
+      </c>
+      <c r="S14">
+        <v>0.009258068031994996</v>
+      </c>
+      <c r="T14">
+        <v>0.01099073326990249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.34427</v>
+      </c>
+      <c r="I15">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J15">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.69375366666667</v>
+      </c>
+      <c r="N15">
+        <v>65.081261</v>
+      </c>
+      <c r="O15">
+        <v>0.4847358065637125</v>
+      </c>
+      <c r="P15">
+        <v>0.4861739564391943</v>
+      </c>
+      <c r="Q15">
+        <v>2.489502858274445</v>
+      </c>
+      <c r="R15">
+        <v>22.40552572447</v>
+      </c>
+      <c r="S15">
+        <v>0.01020111510671235</v>
+      </c>
+      <c r="T15">
+        <v>0.01211027341838277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.34427</v>
+      </c>
+      <c r="I16">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J16">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.397158</v>
+      </c>
+      <c r="N16">
+        <v>0.794316</v>
+      </c>
+      <c r="O16">
+        <v>0.008874291946950641</v>
+      </c>
+      <c r="P16">
+        <v>0.005933747233062296</v>
+      </c>
+      <c r="Q16">
+        <v>0.04557652822</v>
+      </c>
+      <c r="R16">
+        <v>0.27345916932</v>
+      </c>
+      <c r="S16">
+        <v>0.000186756728955436</v>
+      </c>
+      <c r="T16">
+        <v>0.0001478057399747699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J17">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.750370666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.251112</v>
+      </c>
+      <c r="O17">
+        <v>0.0391111353954311</v>
+      </c>
+      <c r="P17">
+        <v>0.03922717319114838</v>
+      </c>
+      <c r="Q17">
+        <v>3.680813632951112</v>
+      </c>
+      <c r="R17">
+        <v>33.12732269656001</v>
+      </c>
+      <c r="S17">
+        <v>0.01508269148247388</v>
+      </c>
+      <c r="T17">
+        <v>0.01790544620143382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="H11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="I11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="J11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.396709227695802</v>
-      </c>
-      <c r="N11">
-        <v>0.396709227695802</v>
-      </c>
-      <c r="O11">
-        <v>0.01002645213127196</v>
-      </c>
-      <c r="P11">
-        <v>0.01002645213127196</v>
-      </c>
-      <c r="Q11">
-        <v>0.9621875102621621</v>
-      </c>
-      <c r="R11">
-        <v>0.9621875102621621</v>
-      </c>
-      <c r="S11">
-        <v>0.008748815156940983</v>
-      </c>
-      <c r="T11">
-        <v>0.008748815156940983</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J18">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.224221333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.672664</v>
+      </c>
+      <c r="O18">
+        <v>0.02735459821956294</v>
+      </c>
+      <c r="P18">
+        <v>0.02743575585531137</v>
+      </c>
+      <c r="Q18">
+        <v>2.574386476702223</v>
+      </c>
+      <c r="R18">
+        <v>23.16947829032</v>
+      </c>
+      <c r="S18">
+        <v>0.01054893859258543</v>
+      </c>
+      <c r="T18">
+        <v>0.01252319273859379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J19">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.688264</v>
+      </c>
+      <c r="N19">
+        <v>59.064792</v>
+      </c>
+      <c r="O19">
+        <v>0.4399241678743427</v>
+      </c>
+      <c r="P19">
+        <v>0.4412293672812835</v>
+      </c>
+      <c r="Q19">
+        <v>41.40199097277334</v>
+      </c>
+      <c r="R19">
+        <v>372.61791875496</v>
+      </c>
+      <c r="S19">
+        <v>0.1696509301672658</v>
+      </c>
+      <c r="T19">
+        <v>0.2014014280317918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J20">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.69375366666667</v>
+      </c>
+      <c r="N20">
+        <v>65.081261</v>
+      </c>
+      <c r="O20">
+        <v>0.4847358065637125</v>
+      </c>
+      <c r="P20">
+        <v>0.4861739564391943</v>
+      </c>
+      <c r="Q20">
+        <v>45.61928839804779</v>
+      </c>
+      <c r="R20">
+        <v>410.57359558243</v>
+      </c>
+      <c r="S20">
+        <v>0.1869319452629004</v>
+      </c>
+      <c r="T20">
+        <v>0.2219166183385486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J21">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.397158</v>
+      </c>
+      <c r="N21">
+        <v>0.794316</v>
+      </c>
+      <c r="O21">
+        <v>0.008874291946950641</v>
+      </c>
+      <c r="P21">
+        <v>0.005933747233062296</v>
+      </c>
+      <c r="Q21">
+        <v>0.8351742911800001</v>
+      </c>
+      <c r="R21">
+        <v>5.011045747080001</v>
+      </c>
+      <c r="S21">
+        <v>0.003422253182066786</v>
+      </c>
+      <c r="T21">
+        <v>0.002708489631327251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.5380765</v>
+      </c>
+      <c r="H22">
+        <v>5.076153</v>
+      </c>
+      <c r="I22">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J22">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.750370666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.251112</v>
+      </c>
+      <c r="O22">
+        <v>0.0391111353954311</v>
+      </c>
+      <c r="P22">
+        <v>0.03922717319114838</v>
+      </c>
+      <c r="Q22">
+        <v>4.442574655356</v>
+      </c>
+      <c r="R22">
+        <v>26.655447932136</v>
+      </c>
+      <c r="S22">
+        <v>0.0182041226740594</v>
+      </c>
+      <c r="T22">
+        <v>0.01440737282924293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.5380765</v>
+      </c>
+      <c r="H23">
+        <v>5.076153</v>
+      </c>
+      <c r="I23">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J23">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.224221333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.672664</v>
+      </c>
+      <c r="O23">
+        <v>0.02735459821956294</v>
+      </c>
+      <c r="P23">
+        <v>0.02743575585531137</v>
+      </c>
+      <c r="Q23">
+        <v>3.107167396932</v>
+      </c>
+      <c r="R23">
+        <v>18.643004381592</v>
+      </c>
+      <c r="S23">
+        <v>0.01273208912637965</v>
+      </c>
+      <c r="T23">
+        <v>0.01007661606237663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.5380765</v>
+      </c>
+      <c r="H24">
+        <v>5.076153</v>
+      </c>
+      <c r="I24">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J24">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.688264</v>
+      </c>
+      <c r="N24">
+        <v>59.064792</v>
+      </c>
+      <c r="O24">
+        <v>0.4399241678743427</v>
+      </c>
+      <c r="P24">
+        <v>0.4412293672812835</v>
+      </c>
+      <c r="Q24">
+        <v>49.970320184196</v>
+      </c>
+      <c r="R24">
+        <v>299.821921105176</v>
+      </c>
+      <c r="S24">
+        <v>0.2047609571621786</v>
+      </c>
+      <c r="T24">
+        <v>0.1620549094031294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.5380765</v>
+      </c>
+      <c r="H25">
+        <v>5.076153</v>
+      </c>
+      <c r="I25">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J25">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.69375366666667</v>
+      </c>
+      <c r="N25">
+        <v>65.081261</v>
+      </c>
+      <c r="O25">
+        <v>0.4847358065637125</v>
+      </c>
+      <c r="P25">
+        <v>0.4861739564391943</v>
+      </c>
+      <c r="Q25">
+        <v>55.06040637815549</v>
+      </c>
+      <c r="R25">
+        <v>330.362438268933</v>
+      </c>
+      <c r="S25">
+        <v>0.2256183564598275</v>
+      </c>
+      <c r="T25">
+        <v>0.1785621771968047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.5380765</v>
+      </c>
+      <c r="H26">
+        <v>5.076153</v>
+      </c>
+      <c r="I26">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J26">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.397158</v>
+      </c>
+      <c r="N26">
+        <v>0.794316</v>
+      </c>
+      <c r="O26">
+        <v>0.008874291946950641</v>
+      </c>
+      <c r="P26">
+        <v>0.005933747233062296</v>
+      </c>
+      <c r="Q26">
+        <v>1.008017386587</v>
+      </c>
+      <c r="R26">
+        <v>4.032069546348</v>
+      </c>
+      <c r="S26">
+        <v>0.004130503950201833</v>
+      </c>
+      <c r="T26">
+        <v>0.002179349203793964</v>
       </c>
     </row>
   </sheetData>
